--- a/TechWatchParamsCalculations.xlsx
+++ b/TechWatchParamsCalculations.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
   <si>
     <t>React</t>
   </si>
@@ -143,8 +143,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -173,7 +175,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -183,6 +185,7 @@
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -192,6 +195,7 @@
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -521,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -534,16 +538,15 @@
     <col min="3" max="3" width="10.83203125" style="1" customWidth="1"/>
     <col min="4" max="8" width="10.83203125" style="1"/>
     <col min="9" max="9" width="13" style="1" customWidth="1"/>
-    <col min="10" max="10" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="1"/>
+    <col min="10" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30">
+    <row r="1" spans="1:8" ht="30">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:8">
       <c r="B2" s="1" t="s">
         <v>18</v>
       </c>
@@ -551,7 +554,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:8">
       <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
@@ -559,7 +562,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:8">
       <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
@@ -567,7 +570,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:8">
       <c r="B5" s="1" t="s">
         <v>20</v>
       </c>
@@ -575,7 +578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:8">
       <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
@@ -583,7 +586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:8">
       <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
@@ -591,7 +594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:8">
       <c r="B13" s="1" t="s">
         <v>0</v>
       </c>
@@ -601,11 +604,8 @@
       <c r="H13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
@@ -631,11 +631,8 @@
       <c r="H14" s="1">
         <v>524</v>
       </c>
-      <c r="J14" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
@@ -662,17 +659,17 @@
         <v>15544</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:10">
       <c r="B18" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
         <v>4</v>
       </c>
@@ -698,11 +695,8 @@
       <c r="H19" s="1">
         <v>945</v>
       </c>
-      <c r="J19" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -729,7 +723,7 @@
         <v>13409</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
@@ -737,12 +731,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:10">
       <c r="B23" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:10">
       <c r="A24" s="2" t="s">
         <v>4</v>
       </c>
@@ -768,11 +762,8 @@
       <c r="H24" s="2">
         <v>1163</v>
       </c>
-      <c r="J24" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="2" t="s">
         <v>5</v>
       </c>
@@ -799,7 +790,7 @@
         <v>40561</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:10">
       <c r="A26" s="2" t="s">
         <v>6</v>
       </c>
@@ -812,12 +803,12 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:10">
       <c r="B28" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:10">
       <c r="A29" s="2" t="s">
         <v>4</v>
       </c>
@@ -843,11 +834,8 @@
       <c r="H29" s="2">
         <v>1280</v>
       </c>
-      <c r="J29" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="30">
+    </row>
+    <row r="30" spans="1:10" ht="30">
       <c r="A30" s="2" t="s">
         <v>5</v>
       </c>
@@ -877,9 +865,8 @@
         <v>10</v>
       </c>
       <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-    </row>
-    <row r="31" spans="1:11">
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="2" t="s">
         <v>6</v>
       </c>
@@ -892,12 +879,12 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:8">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
         <v>5</v>
       </c>
@@ -924,7 +911,7 @@
         <v>8847</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
         <v>4</v>
       </c>
@@ -950,16 +937,13 @@
       <c r="H36" s="1">
         <v>1086</v>
       </c>
-      <c r="J36" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
+    </row>
+    <row r="38" spans="1:8">
       <c r="B38" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
         <v>4</v>
       </c>
@@ -985,16 +969,13 @@
       <c r="H39" s="1">
         <v>359</v>
       </c>
-      <c r="J39" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
+    </row>
+    <row r="41" spans="1:8">
       <c r="B41" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
         <v>4</v>
       </c>
@@ -1016,9 +997,6 @@
       </c>
       <c r="H42" s="1">
         <v>1734</v>
-      </c>
-      <c r="J42" s="1">
-        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/TechWatchParamsCalculations.xlsx
+++ b/TechWatchParamsCalculations.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githubs\TechWatchJS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="13940" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25365" windowHeight="13935" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
   <si>
     <t>React</t>
   </si>
@@ -88,6 +93,12 @@
   </si>
   <si>
     <t>&gt; 2000</t>
+  </si>
+  <si>
+    <t>Vue.js</t>
+  </si>
+  <si>
+    <t>44833(memory taken at 0)</t>
   </si>
 </sst>
 </file>
@@ -200,6 +211,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -525,28 +544,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="1"/>
-    <col min="3" max="3" width="10.83203125" style="1" customWidth="1"/>
-    <col min="4" max="8" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="13.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="1"/>
+    <col min="3" max="3" width="10.875" style="1" customWidth="1"/>
+    <col min="4" max="8" width="10.875" style="1"/>
     <col min="9" max="9" width="13" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="1"/>
+    <col min="10" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30">
+    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>18</v>
       </c>
@@ -554,7 +573,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
@@ -562,7 +581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
@@ -570,7 +589,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>20</v>
       </c>
@@ -578,7 +597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
@@ -586,7 +605,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
@@ -594,7 +613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>0</v>
       </c>
@@ -605,7 +624,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
@@ -632,7 +651,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
@@ -659,17 +678,17 @@
         <v>15544</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>4</v>
       </c>
@@ -696,7 +715,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -723,7 +742,7 @@
         <v>13409</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
@@ -731,12 +750,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>4</v>
       </c>
@@ -763,7 +782,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>5</v>
       </c>
@@ -790,7 +809,7 @@
         <v>40561</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>6</v>
       </c>
@@ -803,12 +822,12 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>4</v>
       </c>
@@ -835,7 +854,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="30">
+    <row r="30" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>5</v>
       </c>
@@ -866,7 +885,7 @@
       </c>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>6</v>
       </c>
@@ -879,12 +898,12 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>5</v>
       </c>
@@ -911,7 +930,7 @@
         <v>8847</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>4</v>
       </c>
@@ -938,12 +957,12 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>4</v>
       </c>
@@ -970,12 +989,12 @@
         <v>359</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>4</v>
       </c>
@@ -998,6 +1017,86 @@
       <c r="H42" s="1">
         <v>1734</v>
       </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="2">
+        <v>390</v>
+      </c>
+      <c r="C45" s="2">
+        <v>437</v>
+      </c>
+      <c r="D45" s="2">
+        <v>1070</v>
+      </c>
+      <c r="E45" s="2">
+        <v>1984</v>
+      </c>
+      <c r="F45" s="2">
+        <v>5839</v>
+      </c>
+      <c r="G45" s="2">
+        <f>SUM(B45:F45)</f>
+        <v>9720</v>
+      </c>
+      <c r="H45" s="2">
+        <f>AVERAGE(B45:F45)</f>
+        <v>1944</v>
+      </c>
+      <c r="J45" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="2">
+        <v>11324</v>
+      </c>
+      <c r="C46" s="2">
+        <v>15451</v>
+      </c>
+      <c r="D46" s="2">
+        <v>28008</v>
+      </c>
+      <c r="E46" s="2">
+        <v>48566</v>
+      </c>
+      <c r="F46" s="2">
+        <v>112717</v>
+      </c>
+      <c r="G46" s="2">
+        <v>110181</v>
+      </c>
+      <c r="H46" s="2">
+        <f>AVERAGE(B46:G46)</f>
+        <v>54374.5</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J46" s="2"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/TechWatchParamsCalculations.xlsx
+++ b/TechWatchParamsCalculations.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>React</t>
   </si>
@@ -98,7 +98,7 @@
     <t>Vue.js</t>
   </si>
   <si>
-    <t>44833(memory taken at 0)</t>
+    <t>0KB</t>
   </si>
 </sst>
 </file>
@@ -544,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1028,61 +1028,57 @@
         <v>4</v>
       </c>
       <c r="B45" s="2">
-        <v>390</v>
+        <v>202</v>
       </c>
       <c r="C45" s="2">
-        <v>437</v>
+        <v>264</v>
       </c>
       <c r="D45" s="2">
-        <v>1070</v>
+        <v>264</v>
       </c>
       <c r="E45" s="2">
-        <v>1984</v>
+        <v>877</v>
       </c>
       <c r="F45" s="2">
-        <v>5839</v>
+        <v>2188</v>
       </c>
       <c r="G45" s="2">
         <f>SUM(B45:F45)</f>
-        <v>9720</v>
+        <v>3795</v>
       </c>
       <c r="H45" s="2">
         <f>AVERAGE(B45:F45)</f>
-        <v>1944</v>
-      </c>
-      <c r="J45" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+        <v>759</v>
+      </c>
+      <c r="J45" s="2"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B46" s="2">
-        <v>11324</v>
+        <v>8313</v>
       </c>
       <c r="C46" s="2">
-        <v>15451</v>
+        <v>9626</v>
       </c>
       <c r="D46" s="2">
-        <v>28008</v>
+        <v>11803</v>
       </c>
       <c r="E46" s="2">
-        <v>48566</v>
+        <v>15314</v>
       </c>
       <c r="F46" s="2">
-        <v>112717</v>
+        <v>25809</v>
       </c>
       <c r="G46" s="2">
         <v>110181</v>
       </c>
       <c r="H46" s="2">
         <f>AVERAGE(B46:G46)</f>
-        <v>54374.5</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>24</v>
-      </c>
+        <v>30174.333333333332</v>
+      </c>
+      <c r="I46" s="2"/>
       <c r="J46" s="2"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -1093,10 +1089,33 @@
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B49" s="1">
+        <v>100</v>
+      </c>
+      <c r="C49" s="1">
+        <v>200</v>
+      </c>
+      <c r="D49" s="1">
+        <v>500</v>
+      </c>
+      <c r="E49" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F49" s="1">
+        <v>2500</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
